--- a/bots/crawl_ch/output/bread_coop_2023-03-06.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-03-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O394"/>
+  <dimension ref="A1:O393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Prix Garantie Toast 2.15 Schweizer Franken</t>
+          <t>Prix Garantie Toast - Online kein Bestand 2.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Ölz Vollkorn Sandwich Toast Soft 4.35 Schweizer Franken</t>
+          <t>Ölz Vollkorn Sandwich Toast Soft - Online kein Bestand 4.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkorntoast 10 Scheiben 2.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Vollkorntoast 10 Scheiben - Online kein Bestand 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9224,7 +9224,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11476,7 +11476,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11614,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12900,7 +12900,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13249,7 +13249,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13460,7 +13460,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13606,7 +13606,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14247,7 +14247,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15176,7 +15176,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15456,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15744,7 +15744,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15813,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16231,7 +16231,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16653,7 +16653,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16929,7 +16929,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -16998,7 +16998,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17647,7 +17647,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17793,7 +17793,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -17937,7 +17937,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18006,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18073,7 +18073,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18142,7 +18142,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18284,7 +18284,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18426,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18499,7 +18499,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18572,7 +18572,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18641,7 +18641,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18710,7 +18710,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18779,7 +18779,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -18994,7 +18994,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19063,7 +19063,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19136,7 +19136,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19351,7 +19351,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19420,7 +19420,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19487,7 +19487,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19554,7 +19554,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19627,7 +19627,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19696,7 +19696,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19769,7 +19769,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19838,7 +19838,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19907,7 +19907,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -19976,7 +19976,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20114,7 +20114,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20181,7 +20181,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20254,7 +20254,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20327,7 +20327,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20396,7 +20396,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20469,7 +20469,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20538,7 +20538,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20607,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20678,7 +20678,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20747,7 +20747,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20816,7 +20816,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -20954,7 +20954,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21027,7 +21027,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21096,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21169,7 +21169,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21238,7 +21238,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21307,7 +21307,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21376,7 +21376,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21445,7 +21445,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21518,7 +21518,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21587,7 +21587,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22078,7 +22078,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22218,7 +22218,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22287,7 +22287,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22356,7 +22356,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22425,7 +22425,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22492,7 +22492,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22565,7 +22565,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22634,7 +22634,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22703,7 +22703,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22776,7 +22776,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22845,7 +22845,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22918,7 +22918,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -22985,7 +22985,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23054,7 +23054,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23127,7 +23127,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23269,7 +23269,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23338,7 +23338,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23407,7 +23407,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23476,7 +23476,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23545,7 +23545,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23614,7 +23614,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23683,7 +23683,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23756,7 +23756,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23825,7 +23825,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23892,7 +23892,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24178,7 +24178,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24247,7 +24247,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24389,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24531,7 +24531,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24600,7 +24600,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24671,7 +24671,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24740,7 +24740,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24809,7 +24809,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24876,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -24945,7 +24945,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25087,7 +25087,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25156,7 +25156,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25574,7 +25574,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25716,7 +25716,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25785,7 +25785,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25854,7 +25854,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25915,7 +25915,7 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Pizzateig rechteckig - Online kein Bestand 3.30 Schweizer Franken</t>
+          <t>Betty Bossi Dinkel Pizzateig rechteckig 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -25925,7 +25925,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -25992,7 +25992,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26061,7 +26061,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26130,7 +26130,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26199,7 +26199,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26266,7 +26266,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26339,7 +26339,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26408,7 +26408,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26481,7 +26481,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26554,7 +26554,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26621,7 +26621,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26694,7 +26694,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26763,7 +26763,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26836,7 +26836,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26903,7 +26903,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -26972,7 +26972,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -27041,7 +27041,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -27108,7 +27108,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -27177,7 +27177,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -27246,7 +27246,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
@@ -27319,45 +27319,43 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>6677259</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Ostertaube</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
-        </is>
-      </c>
-      <c r="D381" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677259</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
       <c r="E381" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.10/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27367,7 +27365,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27377,40 +27375,42 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Ostertaube 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6677259</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Ostertaube</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677259</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>3</v>
+      </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -27419,12 +27419,12 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>2.10/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27434,7 +27434,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27444,56 +27444,56 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Ostertaube 2.10 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E383" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27503,7 +27503,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27513,56 +27513,54 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
-        </is>
-      </c>
-      <c r="D384" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
       <c r="E384" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27572,7 +27570,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27587,49 +27585,51 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>3</v>
+      </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27649,56 +27649,54 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>3735796</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Niederegger Marzipan Vollmilchbrot</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
-        </is>
-      </c>
-      <c r="D386" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-marzipan-vollmilchbrot/p/3735796</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr"/>
       <c r="E386" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Niederegger</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>4.76/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27708,7 +27706,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27718,35 +27716,35 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Niederegger Marzipan Vollmilchbrot 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>3735796</t>
+          <t>6689542</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Niederegger Marzipan Vollmilchbrot</t>
+          <t>Betty Bossi Osterkuchen</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-marzipan-vollmilchbrot/p/3735796</t>
+          <t>/de/lebensmittel/suesses-snacks/oster-suessigkeiten/ostergebaeck/betty-bossi-osterkuchen/p/6689542</t>
         </is>
       </c>
       <c r="D387" t="inlineStr"/>
@@ -27755,17 +27753,17 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Niederegger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>4.76/100g</t>
+          <t>1.36/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27775,7 +27773,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27785,40 +27783,42 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'oster-suessigkeiten', 'ostergebaeck']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Niederegger Marzipan Vollmilchbrot 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Osterkuchen - Online kein Bestand 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6689542</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Betty Bossi Osterkuchen</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/oster-suessigkeiten/ostergebaeck/betty-bossi-osterkuchen/p/6689542</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>14</v>
+      </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -27827,12 +27827,12 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>1.36/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27842,7 +27842,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27852,42 +27852,46 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'oster-suessigkeiten', 'ostergebaeck']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Betty Bossi Osterkuchen - Online kein Bestand 7.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N388" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E389" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -27896,12 +27900,12 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27911,7 +27915,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27921,60 +27925,54 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 20% ab 2 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>3002037</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Niederegger Schwarzbrot Marzipan</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
-        </is>
-      </c>
-      <c r="D390" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-schwarzbrot-marzipan/p/3002037</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
       <c r="E390" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Niederegger</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>4.76/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -27984,7 +27982,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -27994,35 +27992,35 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Niederegger Schwarzbrot Marzipan 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3002037</t>
+          <t>6585720</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Niederegger Schwarzbrot Marzipan</t>
+          <t>Pasquier Beignet chocolat</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-schwarzbrot-marzipan/p/3002037</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-beignet-chocolat/p/6585720</t>
         </is>
       </c>
       <c r="D391" t="inlineStr"/>
@@ -28031,17 +28029,17 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Niederegger</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>4.76/100g</t>
+          <t>1.46/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28051,7 +28049,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28061,35 +28059,35 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Niederegger Schwarzbrot Marzipan 5.95 Schweizer Franken</t>
+          <t>Pasquier Beignet chocolat 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>6585720</t>
+          <t>6680519</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Pasquier Beignet chocolat</t>
+          <t>Pasquier Gâche tranchée</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-beignet-chocolat/p/6585720</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-gache-tranchee/p/6680519</t>
         </is>
       </c>
       <c r="D392" t="inlineStr"/>
@@ -28103,12 +28101,12 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>1.46/100g</t>
+          <t>1.10/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28118,7 +28116,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28133,30 +28131,30 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Pasquier Beignet chocolat 3.95 Schweizer Franken</t>
+          <t>Pasquier Gâche tranchée 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6680519</t>
+          <t>5849793</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Pasquier Gâche tranchée</t>
+          <t>Pasquier Tresse nature</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-gache-tranchee/p/6680519</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-tresse-nature/p/5849793</t>
         </is>
       </c>
       <c r="D393" t="inlineStr"/>
@@ -28170,12 +28168,12 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>1.10/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28185,7 +28183,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28200,80 +28198,13 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Pasquier Gâche tranchée 5.50 Schweizer Franken</t>
+          <t>Pasquier Tresse nature 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-03-06 06:49:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>5849793</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>Pasquier Tresse nature</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-tresse-nature/p/5849793</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="n">
-        <v>0</v>
-      </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>Pasquier</t>
-        </is>
-      </c>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>0.98/100g</t>
-        </is>
-      </c>
-      <c r="I394" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
-        </is>
-      </c>
-      <c r="M394" t="inlineStr">
-        <is>
-          <t>Pasquier Tresse nature 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N394" t="inlineStr"/>
-      <c r="O394" t="inlineStr">
-        <is>
-          <t>2023-03-06 06:49:35</t>
+          <t>2023-03-06 12:57:43</t>
         </is>
       </c>
     </row>
